--- a/HojaVidaComputo/Fabricante - MuestreoDatos.xlsx
+++ b/HojaVidaComputo/Fabricante - MuestreoDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\HojaVidaComputo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{5F6CDBB6-63CB-49B4-BF45-CE4CAD9A884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1780674E-30D1-4B61-800E-BE019FE8733E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8CFED-AEA0-4182-8F5F-EE1EC6DE200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{85AF6D48-FDD5-4A15-BC1B-8DA82DA63D0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{85AF6D48-FDD5-4A15-BC1B-8DA82DA63D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio anemico" sheetId="3" r:id="rId1"/>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -189,6 +195,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -212,15 +219,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>210643</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115034</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44059</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -243,8 +250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="762000"/>
-          <a:ext cx="7830643" cy="5258534"/>
+          <a:off x="933450" y="219074"/>
+          <a:ext cx="5206609" cy="3496409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,11 +598,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFBEECD-139C-48C2-97A7-6DFB6AAF56BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="8"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -606,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2B1D3-F4EF-49F9-AFA2-1ECC5999F861}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +668,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
